--- a/parameter_files/parameters_vaccination.xlsx
+++ b/parameter_files/parameters_vaccination.xlsx
@@ -1344,11 +1344,11 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B63" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="104.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.67"/>
@@ -2366,8 +2366,8 @@
       <c r="A62" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="20" t="n">
-        <v>2.1</v>
+      <c r="B62" s="0" t="n">
+        <v>1.102</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>180</v>
@@ -2386,8 +2386,8 @@
       <c r="A63" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="20" t="n">
-        <v>1.6</v>
+      <c r="B63" s="0" t="n">
+        <v>1.123</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>182</v>
@@ -2406,8 +2406,8 @@
       <c r="A64" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="20" t="n">
-        <v>1.3</v>
+      <c r="B64" s="0" t="n">
+        <v>1.892</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>184</v>
@@ -2426,8 +2426,8 @@
       <c r="A65" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="20" t="n">
-        <v>1.8</v>
+      <c r="B65" s="0" t="n">
+        <v>2.586</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>186</v>
@@ -2446,8 +2446,8 @@
       <c r="A66" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="20" t="n">
-        <v>2</v>
+      <c r="B66" s="0" t="n">
+        <v>4.008</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>188</v>
@@ -2466,8 +2466,8 @@
       <c r="A67" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="20" t="n">
-        <v>2.3</v>
+      <c r="B67" s="0" t="n">
+        <v>4.051</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>190</v>
@@ -2486,8 +2486,8 @@
       <c r="A68" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="20" t="n">
-        <v>2.7</v>
+      <c r="B68" s="0" t="n">
+        <v>3.943</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>192</v>
@@ -2506,8 +2506,8 @@
       <c r="A69" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B69" s="20" t="n">
-        <v>2.9</v>
+      <c r="B69" s="0" t="n">
+        <v>4.232</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>194</v>
@@ -2526,8 +2526,8 @@
       <c r="A70" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="20" t="n">
-        <v>2.6</v>
+      <c r="B70" s="0" t="n">
+        <v>4.075</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>196</v>
@@ -2546,8 +2546,8 @@
       <c r="A71" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="20" t="n">
-        <v>5.098</v>
+      <c r="B71" s="0" t="n">
+        <v>4.075</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>198</v>
@@ -2566,8 +2566,8 @@
       <c r="A72" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B72" s="6" t="n">
-        <v>0.06</v>
+      <c r="B72" s="0" t="n">
+        <v>0.0151515151515152</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>200</v>
@@ -2584,8 +2584,8 @@
       <c r="A73" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="19" t="n">
-        <v>0.04</v>
+      <c r="B73" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>203</v>
@@ -2602,8 +2602,8 @@
       <c r="A74" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="19" t="n">
-        <v>0.04</v>
+      <c r="B74" s="0" t="n">
+        <v>0.08</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>206</v>
@@ -2620,8 +2620,8 @@
       <c r="A75" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="19" t="n">
-        <v>0.08</v>
+      <c r="B75" s="0" t="n">
+        <v>0.0363636363636364</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>209</v>
@@ -2638,8 +2638,8 @@
       <c r="A76" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="19" t="n">
-        <v>0.1</v>
+      <c r="B76" s="0" t="n">
+        <v>0.0144927536231884</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>212</v>
@@ -2656,8 +2656,8 @@
       <c r="A77" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="19" t="n">
-        <v>0.14</v>
+      <c r="B77" s="0" t="n">
+        <v>0.0487804878048781</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>215</v>
@@ -2674,8 +2674,8 @@
       <c r="A78" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="19" t="n">
-        <v>0.16</v>
+      <c r="B78" s="0" t="n">
+        <v>0.0144927536231884</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>218</v>
@@ -2692,8 +2692,8 @@
       <c r="A79" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B79" s="19" t="n">
-        <v>0.14</v>
+      <c r="B79" s="0" t="n">
+        <v>0.0671140939597315</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>221</v>
@@ -2710,8 +2710,8 @@
       <c r="A80" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B80" s="19" t="n">
-        <v>0.04</v>
+      <c r="B80" s="0" t="n">
+        <v>0.0309278350515464</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>224</v>
@@ -2890,8 +2890,8 @@
       <c r="A90" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B90" s="21" t="n">
-        <v>3.346</v>
+      <c r="B90" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>245</v>
@@ -2910,8 +2910,8 @@
       <c r="A91" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B91" s="21" t="n">
-        <v>3.346</v>
+      <c r="B91" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>247</v>
@@ -2930,8 +2930,8 @@
       <c r="A92" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B92" s="21" t="n">
-        <v>3.346</v>
+      <c r="B92" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>249</v>
@@ -2950,8 +2950,8 @@
       <c r="A93" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B93" s="21" t="n">
-        <v>9.285</v>
+      <c r="B93" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>251</v>
@@ -2970,8 +2970,8 @@
       <c r="A94" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B94" s="21" t="n">
-        <v>9.524</v>
+      <c r="B94" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>253</v>
@@ -2990,8 +2990,8 @@
       <c r="A95" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B95" s="21" t="n">
-        <v>16.184</v>
+      <c r="B95" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>255</v>
@@ -3010,8 +3010,8 @@
       <c r="A96" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B96" s="21" t="n">
-        <v>14.618</v>
+      <c r="B96" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>257</v>
@@ -3030,8 +3030,8 @@
       <c r="A97" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B97" s="21" t="n">
-        <v>13.685</v>
+      <c r="B97" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>259</v>
@@ -3050,8 +3050,8 @@
       <c r="A98" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B98" s="21" t="n">
-        <v>17.66</v>
+      <c r="B98" s="0" t="n">
+        <v>4.326</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>261</v>
@@ -3070,8 +3070,8 @@
       <c r="A99" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B99" s="20" t="n">
-        <v>5.032</v>
+      <c r="B99" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>263</v>
@@ -3090,8 +3090,8 @@
       <c r="A100" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B100" s="20" t="n">
-        <v>5.032</v>
+      <c r="B100" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>265</v>
@@ -3110,8 +3110,8 @@
       <c r="A101" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B101" s="20" t="n">
-        <v>5.032</v>
+      <c r="B101" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>267</v>
@@ -3130,8 +3130,8 @@
       <c r="A102" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="20" t="n">
-        <v>8.686</v>
+      <c r="B102" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>269</v>
@@ -3150,8 +3150,8 @@
       <c r="A103" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B103" s="20" t="n">
-        <v>8.623</v>
+      <c r="B103" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>271</v>
@@ -3170,8 +3170,8 @@
       <c r="A104" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B104" s="20" t="n">
-        <v>8.326</v>
+      <c r="B104" s="0" t="n">
+        <v>6.744</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>273</v>
@@ -3190,8 +3190,8 @@
       <c r="A105" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="20" t="n">
-        <v>11.075</v>
+      <c r="B105" s="0" t="n">
+        <v>7.835</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>275</v>
@@ -3210,8 +3210,8 @@
       <c r="A106" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B106" s="20" t="n">
-        <v>10.884</v>
+      <c r="B106" s="0" t="n">
+        <v>7.835</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>277</v>
@@ -3230,8 +3230,8 @@
       <c r="A107" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B107" s="20" t="n">
-        <v>10.741</v>
+      <c r="B107" s="0" t="n">
+        <v>7.835</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>279</v>

--- a/parameter_files/parameters_vaccination.xlsx
+++ b/parameter_files/parameters_vaccination.xlsx
@@ -1344,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B54" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2447,7 +2447,7 @@
         <v>187</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>4.008</v>
+        <v>3</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>188</v>
@@ -2467,7 +2467,7 @@
         <v>189</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>4.051</v>
+        <v>3</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>190</v>
@@ -2487,7 +2487,7 @@
         <v>191</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3.943</v>
+        <v>3</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>192</v>
@@ -2507,7 +2507,7 @@
         <v>193</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>4.232</v>
+        <v>3</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>194</v>
@@ -2527,7 +2527,7 @@
         <v>195</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>4.075</v>
+        <v>3</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>196</v>
@@ -2547,7 +2547,7 @@
         <v>197</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>4.075</v>
+        <v>3</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>198</v>
